--- a/docs/ProcessedData/Comparison.xlsx
+++ b/docs/ProcessedData/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINAY\Desktop\paper\paper_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\PredictiveSTS\docs\ProcessedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588DD9B9-B2F2-4DE7-A554-45410DB06E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BDFF29-83A7-4BAB-A075-A4D1C29D73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{D7AB1631-BA3B-4625-B5EB-A9448358817D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7AB1631-BA3B-4625-B5EB-A9448358817D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A3:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B24" sqref="B24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -522,258 +522,136 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.244</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
-        <v>6.8066739999999903E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7.7729110000000004E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.224793779999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.175256409999999</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
-        <v>1.2515974075277501</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.04050644462285</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.93460483900000002</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.84719504243481902</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
-        <v>-158.76938587000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-164.32046260000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-108.86094396999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-79.059178329999995</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
-        <v>-224.96115843000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-193.58626636</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-186.00728018999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-121.85902466</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
-        <v>-294.03831459000003</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-271.13891998000003</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-214.98869908</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-140.15158022</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3">
-        <v>-86.464886210000003</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-89.101947850000002</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-70.303155599999997</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-47.915802540000001</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
-        <v>67.034627150000006</v>
-      </c>
-      <c r="C11" s="3">
-        <v>75.757359980000004</v>
-      </c>
-      <c r="D11" s="3">
-        <v>27.75167458</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20.513557939999998</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3">
-        <v>-78.062847719999994</v>
-      </c>
-      <c r="C12" s="3">
-        <f>--81.29635663</f>
-        <v>81.296356630000005</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-40.428927360000003</v>
-      </c>
-      <c r="E12" s="3">
-        <f>--32.51195949</f>
-        <v>32.511959490000002</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
-        <v>15024.52253</v>
-      </c>
-      <c r="C13" s="3">
-        <v>13573.819680000001</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10988.085419999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7372.9251700000004</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
-        <v>3826.6373060000001</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4005.309342</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3256.644988</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2072.870848</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
-        <v>2808.958423</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2842.759145</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1572.4142649999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1150.4214999999999</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3">
-        <v>3170.0400719999998</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3525.5630200000001</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1335.394303</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1426.8533159999999</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
-        <v>53.884441789999997</v>
-      </c>
-      <c r="C17" s="3">
-        <v>220.72477789999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>253.7914279</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200.85220090000001</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3">
-        <v>3826.6373060000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4005.309342</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3256.644988</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2072.870848</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="1"/>
@@ -788,9 +666,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3">
-        <v>77.532192240000001</v>
-      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
@@ -799,9 +675,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3">
-        <v>323.80738300000002</v>
-      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="E22" s="1"/>
@@ -818,22 +692,10 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
-        <v>-118.27250234</v>
-      </c>
-      <c r="C24">
-        <v>-38.63746106</v>
-      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>9</v>
-      </c>
-      <c r="B25">
-        <v>-3.6584506299999999</v>
-      </c>
-      <c r="C25">
-        <v>-109.42055868</v>
       </c>
     </row>
     <row r="39" spans="12:12">

--- a/docs/ProcessedData/Comparison.xlsx
+++ b/docs/ProcessedData/Comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\PredictiveSTS\docs\ProcessedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\PredictiveSTS\docs\ProcessedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BDFF29-83A7-4BAB-A075-A4D1C29D73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB3481-CA3E-4170-8DF1-A2D6305DEF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7AB1631-BA3B-4625-B5EB-A9448358817D}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Max COM Y Velocity</t>
   </si>
   <si>
-    <t>Peak HAM Knee</t>
-  </si>
-  <si>
     <t>00 pct</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>40 pct</t>
   </si>
   <si>
-    <t>60 pct(Assist)</t>
-  </si>
-  <si>
     <t>Knee 100</t>
   </si>
   <si>
@@ -106,14 +100,20 @@
     <t>HAM Peak Hip</t>
   </si>
   <si>
-    <t>dT (Peak Knee Hip Torque)</t>
+    <t>60 pct</t>
+  </si>
+  <si>
+    <t>HAM Peak Knee</t>
+  </si>
+  <si>
+    <t>MaxReserve Ankle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -169,8 +176,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,16 +496,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C890385D-9CA6-45FE-9D75-3DFCC531640A}">
-  <dimension ref="A3:L39"/>
+  <dimension ref="A3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
@@ -506,200 +515,330 @@
   <sheetData>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.1443970080841801</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.2331174927362401</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.327104201924</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.46621398254746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.65083383359454505</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.70621759936356698</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.64890184151280395</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.55367654554225698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-62.166264599999998</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-76.101686599999994</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-83.283040529999994</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-53.584503310000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-72.016785069999997</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-66.730237759999994</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-59.220027090000002</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-65.855999659999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-111.26398871000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-115.9192504</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-125.02102911999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-85.511141319999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="6">
+        <v>-31.59822174</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-35.118242240000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-30.032869649999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-26.165827159999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44.401385240000003</v>
+      </c>
+      <c r="C10" s="6">
+        <v>50.340883359999999</v>
+      </c>
+      <c r="D10" s="6">
+        <v>66.430335299999996</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20.413935720000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="6">
+        <v>-45.906407880000003</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-47.145013089999999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-58.51206415</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-29.311450900000001</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4754.1003479999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4857.3955539999997</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5355.185324</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3765.9063230000002</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1194.2700380000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1513.41841</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1437.114223</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1206.327927</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1366.0313410000001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1505.99037</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2058.4512890000001</v>
+      </c>
+      <c r="E14" s="6">
+        <v>782.31067589999998</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>820.29533279999998</v>
+      </c>
+      <c r="C15" s="6">
+        <v>752.44346080000003</v>
+      </c>
+      <c r="D15" s="6">
+        <v>957.98615459999996</v>
+      </c>
+      <c r="E15" s="6">
+        <v>703.65628300000003</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>583.63986120000004</v>
+      </c>
+      <c r="C16" s="6">
+        <v>545.83255559999998</v>
+      </c>
+      <c r="D16" s="6">
+        <v>409.09310269999997</v>
+      </c>
+      <c r="E16" s="6">
+        <v>464.06761189999997</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
+        <v>694.12114999999994</v>
+      </c>
+      <c r="C17" s="6">
+        <v>636.50376210000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>428.96247579999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>275.53518830000002</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>135.88771779999999</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2">
+        <v>165.7263112</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="E22" s="1"/>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>-85.585609480000002</v>
+      </c>
+      <c r="C23">
+        <v>-19.806657659999999</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>-12.05205801</v>
+      </c>
+      <c r="C24">
+        <v>-56.392304660000001</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="12:12">
-      <c r="L39" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>13.250493949999999</v>
+      </c>
+      <c r="C25">
+        <v>13.56026879</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12">
+      <c r="L38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
